--- a/com.AutomationFramework/src/test/resources/testData.xlsx
+++ b/com.AutomationFramework/src/test/resources/testData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullPrecision="1" calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="26">
   <si>
     <t>admin</t>
   </si>
@@ -31,7 +32,7 @@
     <t>a d m I n</t>
   </si>
   <si>
-    <t xml:space="preserve">m a n a g e r </t>
+    <t>m a n a g e r </t>
   </si>
   <si>
     <t>admin@123</t>
@@ -56,18 +57,37 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>Mahibhai07</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Dhoni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,15 +96,61 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,21 +188,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyBorder="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -427,20 +518,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.66015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -448,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -514,6 +606,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>